--- a/DecodeAddress/output/整理后.xlsx
+++ b/DecodeAddress/output/整理后.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\114_temp\008_代码集\001_python\smallPythonTool\DecodeAddress\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDE59689-D80E-4FFF-B98A-EA42A55FF52E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF015F8-8BE1-43D1-9D01-15228F2EE3E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{32CA49B8-ED74-46D4-82DE-3283D920E832}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{32CA49B8-ED74-46D4-82DE-3283D920E832}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="1" hidden="1">Sheet2!$A$1:$M$30</definedName>
+    <definedName name="ExternalData_1" localSheetId="2" hidden="1">Sheet2!$A$1:$M$30</definedName>
     <definedName name="ExternalData_2" localSheetId="0" hidden="1">Sheet3!$A$1:$M$34</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -641,14 +642,34 @@
   </cellStyles>
   <dxfs count="22">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -691,34 +712,14 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -782,16 +783,16 @@
   <autoFilter ref="A1:M34" xr:uid="{7D853142-685A-419B-9080-7FA8B8C29E16}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{17B2F5E3-2F89-46AD-9BBF-2FEF6C557357}" uniqueName="1" name="Column1" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{F0C6650F-B605-4263-AEA5-3DB2C600374D}" uniqueName="2" name="踏查点名称" queryTableFieldId="2" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{C1130ADA-F46B-4F3E-A3FD-DCC3B2764273}" uniqueName="3" name="时" queryTableFieldId="3" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{8F140A5E-536F-4B17-A51C-C072A93ADC20}" uniqueName="4" name="保护级别" queryTableFieldId="4" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{59BC8701-CB59-44A7-BC52-C8C2858CE18C}" uniqueName="5" name="类别明细" queryTableFieldId="5" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{DF955CF1-E592-43E4-96A4-AE31EA23D89A}" uniqueName="6" name="宗教类型" queryTableFieldId="6" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{340FD44E-DB7F-483B-A329-197173FA703C}" uniqueName="7" name="地域分布/地理信息" queryTableFieldId="7" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{EB45A87E-FA5D-49C5-B909-9542354162FD}" uniqueName="8" name="建筑规模" queryTableFieldId="8" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{3CE613E4-D690-439B-BBF6-E073457FD41F}" uniqueName="9" name="建筑具体情况" queryTableFieldId="9" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{A5B469B3-E826-4DB4-8900-E36A972D46EF}" uniqueName="10" name="保存现状" queryTableFieldId="10" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{34BB14D6-08D4-4D73-8290-A93DB9FC99EE}" uniqueName="11" name="备注" queryTableFieldId="11" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{F0C6650F-B605-4263-AEA5-3DB2C600374D}" uniqueName="2" name="踏查点名称" queryTableFieldId="2" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{C1130ADA-F46B-4F3E-A3FD-DCC3B2764273}" uniqueName="3" name="时" queryTableFieldId="3" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{8F140A5E-536F-4B17-A51C-C072A93ADC20}" uniqueName="4" name="保护级别" queryTableFieldId="4" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{59BC8701-CB59-44A7-BC52-C8C2858CE18C}" uniqueName="5" name="类别明细" queryTableFieldId="5" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{DF955CF1-E592-43E4-96A4-AE31EA23D89A}" uniqueName="6" name="宗教类型" queryTableFieldId="6" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{340FD44E-DB7F-483B-A329-197173FA703C}" uniqueName="7" name="地域分布/地理信息" queryTableFieldId="7" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{EB45A87E-FA5D-49C5-B909-9542354162FD}" uniqueName="8" name="建筑规模" queryTableFieldId="8" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{3CE613E4-D690-439B-BBF6-E073457FD41F}" uniqueName="9" name="建筑具体情况" queryTableFieldId="9" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{A5B469B3-E826-4DB4-8900-E36A972D46EF}" uniqueName="10" name="保存现状" queryTableFieldId="10" dataDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{34BB14D6-08D4-4D73-8290-A93DB9FC99EE}" uniqueName="11" name="备注" queryTableFieldId="11" dataDxfId="11"/>
     <tableColumn id="12" xr3:uid="{8FB71A2A-EE82-4406-86F3-9DD0C40D2702}" uniqueName="12" name="lon" queryTableFieldId="12"/>
     <tableColumn id="13" xr3:uid="{F38EF1BE-C5F6-4B11-BF96-F50F5B79632A}" uniqueName="13" name="lat" queryTableFieldId="13"/>
   </tableColumns>
@@ -804,16 +805,16 @@
   <autoFilter ref="A1:M30" xr:uid="{01DC3218-7FE1-415C-AFB1-57BFC5679A23}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{F34FCEF9-38D1-4259-A034-37C11816A86A}" uniqueName="1" name="Column1" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{44583643-F77D-4A08-B362-773DAC4E38B0}" uniqueName="2" name="踏查点名称" queryTableFieldId="2" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{040C37AB-46DB-4A42-9A23-2F88F3E59159}" uniqueName="3" name="时代" queryTableFieldId="3" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{FBEFFAAC-27CE-4DAD-BFBB-606E725469B8}" uniqueName="4" name="保护级别" queryTableFieldId="4" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{38BFE015-66E8-4BD6-9D26-B48C28752569}" uniqueName="5" name="类别明细" queryTableFieldId="5" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{E4D7AC29-B9DB-4F4F-BEFB-29326C9A0B26}" uniqueName="6" name="宗教类型" queryTableFieldId="6" dataDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{FC96519C-47A6-40C8-9F72-98EADB2CF91B}" uniqueName="7" name="地域分布/地理信息" queryTableFieldId="7" dataDxfId="16"/>
-    <tableColumn id="8" xr3:uid="{6B0DDDCC-FA2C-4A6C-A1AB-1642F8CC1BC4}" uniqueName="8" name="建筑规模" queryTableFieldId="8" dataDxfId="15"/>
-    <tableColumn id="9" xr3:uid="{EE966A9C-9C6F-4387-BCA7-EBA3D63AAEBC}" uniqueName="9" name="建筑具体情况" queryTableFieldId="9" dataDxfId="14"/>
-    <tableColumn id="10" xr3:uid="{E3B3F4AF-AECC-4BF1-A650-29B800C71138}" uniqueName="10" name="保存现状" queryTableFieldId="10" dataDxfId="13"/>
-    <tableColumn id="11" xr3:uid="{C242A86E-EF83-4D10-AAE8-CA6AB55281E9}" uniqueName="11" name="备注" queryTableFieldId="11" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{44583643-F77D-4A08-B362-773DAC4E38B0}" uniqueName="2" name="踏查点名称" queryTableFieldId="2" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{040C37AB-46DB-4A42-9A23-2F88F3E59159}" uniqueName="3" name="时代" queryTableFieldId="3" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{FBEFFAAC-27CE-4DAD-BFBB-606E725469B8}" uniqueName="4" name="保护级别" queryTableFieldId="4" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{38BFE015-66E8-4BD6-9D26-B48C28752569}" uniqueName="5" name="类别明细" queryTableFieldId="5" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{E4D7AC29-B9DB-4F4F-BEFB-29326C9A0B26}" uniqueName="6" name="宗教类型" queryTableFieldId="6" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{FC96519C-47A6-40C8-9F72-98EADB2CF91B}" uniqueName="7" name="地域分布/地理信息" queryTableFieldId="7" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{6B0DDDCC-FA2C-4A6C-A1AB-1642F8CC1BC4}" uniqueName="8" name="建筑规模" queryTableFieldId="8" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{EE966A9C-9C6F-4387-BCA7-EBA3D63AAEBC}" uniqueName="9" name="建筑具体情况" queryTableFieldId="9" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{E3B3F4AF-AECC-4BF1-A650-29B800C71138}" uniqueName="10" name="保存现状" queryTableFieldId="10" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{C242A86E-EF83-4D10-AAE8-CA6AB55281E9}" uniqueName="11" name="备注" queryTableFieldId="11" dataDxfId="0"/>
     <tableColumn id="12" xr3:uid="{1408387A-6CA2-43EB-9AED-C82CBE4DA14D}" uniqueName="12" name="lon" queryTableFieldId="12"/>
     <tableColumn id="13" xr3:uid="{BC808E1C-FDA5-49C1-B316-E8CE02CF61F9}" uniqueName="13" name="lat" queryTableFieldId="13"/>
   </tableColumns>
@@ -1120,8 +1121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9250CBC5-EB2E-489A-9548-CAF5B4FC255D}">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2537,7 +2538,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2548,6 +2549,93 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF1ECAA-02D4-48EF-8AA0-A00348DA5B69}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20D75FD5-BC26-4288-A406-685FB36914AA}">
   <dimension ref="A1:M30"/>
   <sheetViews>
@@ -3804,7 +3892,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -3813,7 +3901,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3B55BAA-8787-4246-A503-E5273263973A}">
   <dimension ref="A1"/>
   <sheetViews>
